--- a/Xia_SourceData_Fig5/stochistic prison's dilemma games/panel c/b1-AVERAGED.xlsx
+++ b/Xia_SourceData_Fig5/stochistic prison's dilemma games/panel c/b1-AVERAGED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuarkMao\CURE-main\simulation experiments\data\Figure 6\stochistic prison's dilemma games\panel c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuarkMao\1. 完成工作\2. CURE_投稿\CURE_submation_version2_2022update_原始\最终版本\Source Data_confirm\Xia_SourceData_Fig5\stochistic prison's dilemma games\panel c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618C16B-72BD-480E-B25B-7174519B7E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51CCDC6-9380-454C-8794-F363EBC6157F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="11115" xr2:uid="{8861DD4A-93E3-4463-BAD9-2AB441F2F213}"/>
   </bookViews>
@@ -86,11 +86,11 @@
     <t>stra.17</t>
   </si>
   <si>
-    <t>cooperete</t>
+    <t>cooperete_WithCURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C-16</t>
+    <t>Cooperation_WithoutCURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEF66A8-103D-4DE6-8E44-91134E382760}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
